--- a/data_extraction.xlsx
+++ b/data_extraction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\REVIEW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFC9424C-D367-4CBF-9AD0-15723FEFE30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED8896D-D496-4381-AEA4-2A5FF1D0568F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TAB1" sheetId="5" r:id="rId1"/>
@@ -5739,8 +5739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1043B2E0-A1E0-4FD8-9D50-E361026F5B48}">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8656,7 +8656,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -9462,7 +9462,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -10383,8 +10383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327D2809-D1F1-42CA-972D-A3C35C35F361}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13368,7 +13368,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
